--- a/raw-data/ridership_change.xlsx
+++ b/raw-data/ridership_change.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
